--- a/static/questions.xlsx
+++ b/static/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udi\opt\Gali-Hangman\Gali-Hangman\game_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udi\opt\Gali-Hangman\Gali-Hangman\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C808A-4017-4F8F-B515-3852FB58C56B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69162FB-DDB4-4759-9925-189B784E53DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57F00D78-443B-40C5-81D6-1C549946CC56}"/>
   </bookViews>
@@ -126,8 +126,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,235 +451,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0E41EA-8E57-4972-AF34-26C7816A8937}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
     </row>
